--- a/Sources/gsc_scheduler/docs/gsc_dictionary.xlsx
+++ b/Sources/gsc_scheduler/docs/gsc_dictionary.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="566"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="6705" windowHeight="4560" tabRatio="566"/>
   </bookViews>
   <sheets>
     <sheet name="Function Dictionary" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="Manager Task List" sheetId="7" r:id="rId6"/>
     <sheet name="Other" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A19:D22"/>
 </workbook>
 </file>
 
@@ -667,8 +668,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -979,11 +980,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1025,7 +1034,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1057,9 +1066,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1091,6 +1101,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1266,14 +1277,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
@@ -1286,7 +1297,7 @@
     <col min="9" max="9" width="30.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>7</v>
       </c>
@@ -1318,7 +1329,7 @@
       <c r="K1" s="31"/>
       <c r="L1" s="31"/>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>98</v>
       </c>
@@ -1350,7 +1361,7 @@
       <c r="K2" s="31"/>
       <c r="L2" s="31"/>
     </row>
-    <row r="3" spans="1:12" ht="45">
+    <row r="3" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>105</v>
       </c>
@@ -1382,7 +1393,7 @@
       <c r="K3" s="31"/>
       <c r="L3" s="31"/>
     </row>
-    <row r="4" spans="1:12" ht="30">
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>110</v>
       </c>
@@ -1414,7 +1425,7 @@
       <c r="K4" s="31"/>
       <c r="L4" s="31"/>
     </row>
-    <row r="5" spans="1:12" ht="30">
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>114</v>
       </c>
@@ -1446,7 +1457,7 @@
       <c r="K5" s="31"/>
       <c r="L5" s="31"/>
     </row>
-    <row r="6" spans="1:12" ht="75">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>173</v>
       </c>
@@ -1478,7 +1489,7 @@
       <c r="K6" s="31"/>
       <c r="L6" s="31"/>
     </row>
-    <row r="7" spans="1:12" ht="30">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>181</v>
       </c>
@@ -1510,7 +1521,7 @@
       <c r="K7" s="31"/>
       <c r="L7" s="31"/>
     </row>
-    <row r="8" spans="1:12" ht="45">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>182</v>
       </c>
@@ -1542,7 +1553,7 @@
       <c r="K8" s="31"/>
       <c r="L8" s="31"/>
     </row>
-    <row r="9" spans="1:12" ht="30">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>183</v>
       </c>
@@ -1574,7 +1585,7 @@
       <c r="K9" s="31"/>
       <c r="L9" s="31"/>
     </row>
-    <row r="10" spans="1:12" ht="30">
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>188</v>
       </c>
@@ -1606,7 +1617,7 @@
       <c r="K10" s="31"/>
       <c r="L10" s="31"/>
     </row>
-    <row r="11" spans="1:12" ht="30">
+    <row r="11" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>189</v>
       </c>
@@ -1638,7 +1649,7 @@
       <c r="K11" s="31"/>
       <c r="L11" s="31"/>
     </row>
-    <row r="12" spans="1:12" ht="30">
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="48" t="s">
         <v>190</v>
       </c>
@@ -1670,7 +1681,7 @@
       <c r="K12" s="31"/>
       <c r="L12" s="31"/>
     </row>
-    <row r="13" spans="1:12" ht="30">
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="48" t="s">
         <v>191</v>
       </c>
@@ -1702,7 +1713,7 @@
       <c r="K13" s="31"/>
       <c r="L13" s="31"/>
     </row>
-    <row r="14" spans="1:12" ht="30">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="48" t="s">
         <v>192</v>
       </c>
@@ -1734,7 +1745,7 @@
       <c r="K14" s="31"/>
       <c r="L14" s="31"/>
     </row>
-    <row r="15" spans="1:12" ht="30">
+    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="48" t="s">
         <v>193</v>
       </c>
@@ -1766,7 +1777,7 @@
       <c r="K15" s="31"/>
       <c r="L15" s="31"/>
     </row>
-    <row r="16" spans="1:12" ht="30">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="48" t="s">
         <v>194</v>
       </c>
@@ -1798,7 +1809,7 @@
       <c r="K16" s="31"/>
       <c r="L16" s="31"/>
     </row>
-    <row r="17" spans="1:12" ht="45">
+    <row r="17" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="48" t="s">
         <v>196</v>
       </c>
@@ -1830,7 +1841,7 @@
       <c r="K17" s="31"/>
       <c r="L17" s="31"/>
     </row>
-    <row r="18" spans="1:12" ht="45">
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>197</v>
       </c>
@@ -1862,7 +1873,7 @@
       <c r="K18" s="31"/>
       <c r="L18" s="31"/>
     </row>
-    <row r="19" spans="1:12" ht="45">
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>198</v>
       </c>
@@ -1894,7 +1905,7 @@
       <c r="K19" s="31"/>
       <c r="L19" s="31"/>
     </row>
-    <row r="20" spans="1:12" ht="45">
+    <row r="20" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>199</v>
       </c>
@@ -1926,7 +1937,7 @@
       <c r="K20" s="31"/>
       <c r="L20" s="31"/>
     </row>
-    <row r="21" spans="1:12" ht="45">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>200</v>
       </c>
@@ -1958,7 +1969,7 @@
       <c r="K21" s="31"/>
       <c r="L21" s="31"/>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>201</v>
       </c>
@@ -1990,7 +2001,7 @@
       <c r="K22" s="31"/>
       <c r="L22" s="31"/>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>202</v>
       </c>
@@ -2022,7 +2033,7 @@
       <c r="K23" s="31"/>
       <c r="L23" s="31"/>
     </row>
-    <row r="24" spans="1:12" ht="45">
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>203</v>
       </c>
@@ -2054,7 +2065,7 @@
       <c r="K24" s="31"/>
       <c r="L24" s="31"/>
     </row>
-    <row r="25" spans="1:12" ht="45">
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>204</v>
       </c>
@@ -2086,7 +2097,7 @@
       <c r="K25" s="31"/>
       <c r="L25" s="31"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -2100,7 +2111,7 @@
       <c r="K26" s="31"/>
       <c r="L26" s="31"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -2114,7 +2125,7 @@
       <c r="K27" s="31"/>
       <c r="L27" s="31"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -2128,7 +2139,7 @@
       <c r="K28" s="31"/>
       <c r="L28" s="31"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -2142,7 +2153,7 @@
       <c r="K29" s="31"/>
       <c r="L29" s="31"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -2156,7 +2167,7 @@
       <c r="K30" s="31"/>
       <c r="L30" s="31"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -2170,7 +2181,7 @@
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -2184,7 +2195,7 @@
       <c r="K32" s="31"/>
       <c r="L32" s="31"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -2198,7 +2209,7 @@
       <c r="K33" s="31"/>
       <c r="L33" s="31"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -2212,7 +2223,7 @@
       <c r="K34" s="31"/>
       <c r="L34" s="31"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -2226,7 +2237,7 @@
       <c r="K35" s="31"/>
       <c r="L35" s="31"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -2240,7 +2251,7 @@
       <c r="K36" s="31"/>
       <c r="L36" s="31"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="31"/>
       <c r="B37" s="31"/>
       <c r="C37" s="31"/>
@@ -2254,7 +2265,7 @@
       <c r="K37" s="31"/>
       <c r="L37" s="31"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="31"/>
       <c r="B38" s="31"/>
       <c r="C38" s="31"/>
@@ -2274,14 +2285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R1" sqref="R1:T12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5703125" bestFit="1" customWidth="1"/>
@@ -2301,7 +2312,7 @@
     <col min="17" max="17" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2353,7 +2364,7 @@
       <c r="S1" s="31"/>
       <c r="T1" s="31"/>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>54</v>
       </c>
@@ -2409,7 +2420,7 @@
       <c r="S2" s="31"/>
       <c r="T2" s="31"/>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -2436,7 +2447,7 @@
       <c r="S3" s="31"/>
       <c r="T3" s="31"/>
     </row>
-    <row r="4" spans="1:20" ht="30">
+    <row r="4" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>119</v>
       </c>
@@ -2488,7 +2499,7 @@
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
     </row>
-    <row r="5" spans="1:20" ht="30">
+    <row r="5" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="19"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -2514,7 +2525,7 @@
       <c r="S5" s="31"/>
       <c r="T5" s="31"/>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>151</v>
       </c>
@@ -2566,7 +2577,7 @@
       <c r="S6" s="31"/>
       <c r="T6" s="31"/>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>122</v>
       </c>
@@ -2618,7 +2629,7 @@
       <c r="S7" s="31"/>
       <c r="T7" s="31"/>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>123</v>
       </c>
@@ -2674,7 +2685,7 @@
       <c r="S8" s="31"/>
       <c r="T8" s="31"/>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>124</v>
       </c>
@@ -2730,7 +2741,7 @@
       <c r="S9" s="31"/>
       <c r="T9" s="31"/>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>125</v>
       </c>
@@ -2786,7 +2797,7 @@
       <c r="S10" s="31"/>
       <c r="T10" s="31"/>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="27" t="s">
         <v>179</v>
       </c>
@@ -2838,7 +2849,7 @@
       <c r="S11" s="31"/>
       <c r="T11" s="31"/>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="28"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -2864,7 +2875,7 @@
       <c r="S12" s="31"/>
       <c r="T12" s="31"/>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -2886,7 +2897,7 @@
       <c r="S13" s="31"/>
       <c r="T13" s="31"/>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -2908,7 +2919,7 @@
       <c r="S14" s="31"/>
       <c r="T14" s="31"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -2930,7 +2941,7 @@
       <c r="S15" s="31"/>
       <c r="T15" s="31"/>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -2952,7 +2963,7 @@
       <c r="S16" s="31"/>
       <c r="T16" s="31"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -2974,7 +2985,7 @@
       <c r="S17" s="31"/>
       <c r="T17" s="31"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -2996,7 +3007,7 @@
       <c r="S18" s="31"/>
       <c r="T18" s="31"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -3018,7 +3029,7 @@
       <c r="S19" s="31"/>
       <c r="T19" s="31"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -3040,7 +3051,7 @@
       <c r="S20" s="31"/>
       <c r="T20" s="31"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -3062,7 +3073,7 @@
       <c r="S21" s="31"/>
       <c r="T21" s="31"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -3084,7 +3095,7 @@
       <c r="S22" s="31"/>
       <c r="T22" s="31"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -3106,7 +3117,7 @@
       <c r="S23" s="31"/>
       <c r="T23" s="31"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -3128,7 +3139,7 @@
       <c r="S24" s="31"/>
       <c r="T24" s="31"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -3150,7 +3161,7 @@
       <c r="S25" s="31"/>
       <c r="T25" s="31"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -3178,14 +3189,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1:I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
@@ -3195,7 +3206,7 @@
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>14</v>
       </c>
@@ -3218,7 +3229,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>53</v>
       </c>
@@ -3239,7 +3250,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>60</v>
       </c>
@@ -3260,7 +3271,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>61</v>
       </c>
@@ -3281,7 +3292,7 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
@@ -3304,7 +3315,7 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19"/>
       <c r="B6" s="20"/>
       <c r="C6" s="21"/>
@@ -3319,7 +3330,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>67</v>
       </c>
@@ -3340,7 +3351,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9" ht="30">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>74</v>
       </c>
@@ -3363,7 +3374,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
@@ -3378,7 +3389,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="23"/>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
@@ -3393,7 +3404,7 @@
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -3408,7 +3419,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -3423,7 +3434,7 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="27" t="s">
         <v>152</v>
       </c>
@@ -3446,7 +3457,7 @@
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="23"/>
       <c r="C14" s="25"/>
@@ -3461,7 +3472,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="23"/>
       <c r="C15" s="25"/>
@@ -3476,7 +3487,7 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="23"/>
       <c r="C16" s="25"/>
@@ -3489,7 +3500,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="23"/>
       <c r="C17" s="25"/>
@@ -3502,7 +3513,7 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="23"/>
       <c r="C18" s="25"/>
@@ -3515,7 +3526,7 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="23"/>
       <c r="C19" s="25"/>
@@ -3528,7 +3539,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="23"/>
       <c r="C20" s="25"/>
@@ -3541,7 +3552,7 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="23"/>
       <c r="C21" s="25"/>
@@ -3554,7 +3565,7 @@
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="28"/>
       <c r="B22" s="19"/>
       <c r="C22" s="22"/>
@@ -3567,7 +3578,7 @@
       <c r="H22" s="31"/>
       <c r="I22" s="31"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="31"/>
       <c r="C23" s="31"/>
@@ -3578,7 +3589,7 @@
       <c r="H23" s="31"/>
       <c r="I23" s="31"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="31"/>
       <c r="C24" s="31"/>
@@ -3589,7 +3600,7 @@
       <c r="H24" s="31"/>
       <c r="I24" s="31"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="31"/>
       <c r="C25" s="31"/>
@@ -3600,7 +3611,7 @@
       <c r="H25" s="31"/>
       <c r="I25" s="31"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="31"/>
       <c r="C26" s="31"/>
@@ -3611,7 +3622,7 @@
       <c r="H26" s="31"/>
       <c r="I26" s="31"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="31"/>
       <c r="C27" s="31"/>
@@ -3622,7 +3633,7 @@
       <c r="H27" s="31"/>
       <c r="I27" s="31"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="31"/>
       <c r="C28" s="31"/>
@@ -3633,7 +3644,7 @@
       <c r="H28" s="31"/>
       <c r="I28" s="31"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="31"/>
       <c r="C29" s="31"/>
@@ -3644,7 +3655,7 @@
       <c r="H29" s="31"/>
       <c r="I29" s="31"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="31"/>
       <c r="C30" s="31"/>
@@ -3655,7 +3666,7 @@
       <c r="H30" s="31"/>
       <c r="I30" s="31"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -3666,7 +3677,7 @@
       <c r="H31" s="31"/>
       <c r="I31" s="31"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="31"/>
       <c r="C32" s="31"/>
@@ -3677,7 +3688,7 @@
       <c r="H32" s="31"/>
       <c r="I32" s="31"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="31"/>
       <c r="C33" s="31"/>
@@ -3688,7 +3699,7 @@
       <c r="H33" s="31"/>
       <c r="I33" s="31"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -3699,7 +3710,7 @@
       <c r="H34" s="31"/>
       <c r="I34" s="31"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="31"/>
       <c r="B35" s="31"/>
       <c r="C35" s="31"/>
@@ -3710,7 +3721,7 @@
       <c r="H35" s="31"/>
       <c r="I35" s="31"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="31"/>
       <c r="B36" s="31"/>
       <c r="C36" s="31"/>
@@ -3727,14 +3738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="98.28515625" bestFit="1" customWidth="1"/>
@@ -3742,7 +3753,7 @@
     <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>17</v>
       </c>
@@ -3759,7 +3770,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>20</v>
       </c>
@@ -3776,7 +3787,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>21</v>
       </c>
@@ -3793,7 +3804,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>22</v>
       </c>
@@ -3810,7 +3821,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>24</v>
       </c>
@@ -3827,7 +3838,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
@@ -3844,7 +3855,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>27</v>
       </c>
@@ -3861,7 +3872,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>29</v>
       </c>
@@ -3878,7 +3889,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>31</v>
       </c>
@@ -3895,7 +3906,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>33</v>
       </c>
@@ -3912,7 +3923,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>42</v>
       </c>
@@ -3929,7 +3940,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>43</v>
       </c>
@@ -3946,7 +3957,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>44</v>
       </c>
@@ -3963,7 +3974,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>45</v>
       </c>
@@ -3980,7 +3991,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>46</v>
       </c>
@@ -3997,7 +4008,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -4006,7 +4017,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -4015,7 +4026,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -4024,7 +4035,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -4033,7 +4044,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4042,7 +4053,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -4057,14 +4068,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -4072,7 +4083,7 @@
     <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>77</v>
       </c>
@@ -4089,7 +4100,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -4106,7 +4117,7 @@
       <c r="F2" s="31"/>
       <c r="G2" s="31"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>80</v>
       </c>
@@ -4123,7 +4134,7 @@
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>166</v>
       </c>
@@ -4140,7 +4151,7 @@
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>147</v>
       </c>
@@ -4157,7 +4168,7 @@
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="31"/>
       <c r="B6" s="31"/>
       <c r="C6" s="31"/>
@@ -4166,7 +4177,7 @@
       <c r="F6" s="31"/>
       <c r="G6" s="31"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="31"/>
       <c r="B7" s="31"/>
       <c r="C7" s="31"/>
@@ -4175,7 +4186,7 @@
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="31"/>
       <c r="B8" s="31"/>
       <c r="C8" s="31"/>
@@ -4184,7 +4195,7 @@
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="31"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
@@ -4193,7 +4204,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="31"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
@@ -4202,7 +4213,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -4211,7 +4222,7 @@
       <c r="F11" s="31"/>
       <c r="G11" s="31"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -4220,7 +4231,7 @@
       <c r="F12" s="31"/>
       <c r="G12" s="31"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -4229,7 +4240,7 @@
       <c r="F13" s="31"/>
       <c r="G13" s="31"/>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4238,7 +4249,7 @@
       <c r="F14" s="31"/>
       <c r="G14" s="31"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -4247,7 +4258,7 @@
       <c r="F15" s="31"/>
       <c r="G15" s="31"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -4256,7 +4267,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="31"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -4265,7 +4276,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="31"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -4274,7 +4285,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="31"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -4283,7 +4294,7 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4292,7 +4303,7 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -4307,14 +4318,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.42578125" bestFit="1" customWidth="1"/>
@@ -4323,7 +4334,7 @@
     <col min="5" max="5" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>206</v>
       </c>
@@ -4344,7 +4355,7 @@
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>79</v>
       </c>
@@ -4365,7 +4376,7 @@
       <c r="H2" s="31"/>
       <c r="I2" s="31"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
         <v>79</v>
       </c>
@@ -4386,7 +4397,7 @@
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>188</v>
       </c>
@@ -4407,7 +4418,7 @@
       <c r="H4" s="31"/>
       <c r="I4" s="31"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>189</v>
       </c>
@@ -4428,7 +4439,7 @@
       <c r="H5" s="31"/>
       <c r="I5" s="31"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>190</v>
       </c>
@@ -4449,7 +4460,7 @@
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>191</v>
       </c>
@@ -4470,7 +4481,7 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="11" t="s">
         <v>192</v>
       </c>
@@ -4491,7 +4502,7 @@
       <c r="H8" s="31"/>
       <c r="I8" s="31"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>193</v>
       </c>
@@ -4512,7 +4523,7 @@
       <c r="H9" s="31"/>
       <c r="I9" s="31"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>194</v>
       </c>
@@ -4533,7 +4544,7 @@
       <c r="H10" s="31"/>
       <c r="I10" s="31"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
@@ -4544,7 +4555,7 @@
       <c r="H11" s="31"/>
       <c r="I11" s="31"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
@@ -4555,7 +4566,7 @@
       <c r="H12" s="31"/>
       <c r="I12" s="31"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="31"/>
       <c r="C13" s="31"/>
@@ -4566,7 +4577,7 @@
       <c r="H13" s="31"/>
       <c r="I13" s="31"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
@@ -4577,7 +4588,7 @@
       <c r="H14" s="31"/>
       <c r="I14" s="31"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
@@ -4588,7 +4599,7 @@
       <c r="H15" s="31"/>
       <c r="I15" s="31"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
@@ -4599,7 +4610,7 @@
       <c r="H16" s="31"/>
       <c r="I16" s="31"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -4610,7 +4621,7 @@
       <c r="H17" s="31"/>
       <c r="I17" s="31"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="31"/>
       <c r="C18" s="31"/>
@@ -4621,7 +4632,7 @@
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="31"/>
       <c r="C19" s="31"/>
@@ -4632,7 +4643,7 @@
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
@@ -4643,7 +4654,7 @@
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="31"/>
       <c r="C21" s="31"/>
@@ -4654,7 +4665,7 @@
       <c r="H21" s="31"/>
       <c r="I21" s="31"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
@@ -4671,16 +4682,16 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>143</v>
       </c>
@@ -4688,7 +4699,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>139</v>
       </c>
